--- a/rider/weekly/2017_ 3.xlsx
+++ b/rider/weekly/2017_ 3.xlsx
@@ -186,22 +186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>248</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>202</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>213.08</c:v>
+                  <c:v>212.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.58</c:v>
+                  <c:v>194.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>229.18</c:v>
+                  <c:v>225.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>234.17</c:v>
+                  <c:v>237.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120.31</c:v>
+                  <c:v>121.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.09</c:v>
+                  <c:v>103.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D2">
-        <v>213.08</v>
+        <v>212.17</v>
       </c>
       <c r="E2">
         <v>100.93</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D3">
-        <v>209.58</v>
+        <v>194.17</v>
       </c>
       <c r="E3">
         <v>101.09</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D4">
-        <v>229.18</v>
+        <v>225.09</v>
       </c>
       <c r="E4">
         <v>101.25</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D5">
-        <v>234.17</v>
+        <v>237.33</v>
       </c>
       <c r="E5">
         <v>101.42</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D6">
-        <v>120.31</v>
+        <v>121.92</v>
       </c>
       <c r="E6">
         <v>101.58</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7">
-        <v>105.09</v>
+        <v>103.64</v>
       </c>
       <c r="E7">
         <v>101.74</v>
